--- a/2015_2016_Informatique/Progression_Informatique_2015_2016_PT_etoile.xlsx
+++ b/2015_2016_Informatique/Progression_Informatique_2015_2016_PT_etoile.xlsx
@@ -7,19 +7,20 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Progression_PT_Star" sheetId="4" r:id="rId1"/>
-    <sheet name="Progression_PT_Star_Distr" sheetId="6" r:id="rId2"/>
-    <sheet name="Progression_PT_Info" sheetId="1" r:id="rId3"/>
-    <sheet name="Progression_PT_Info_distrib" sheetId="5" r:id="rId4"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId5"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId6"/>
+    <sheet name="Progression_PT_2016_2017" sheetId="7" r:id="rId1"/>
+    <sheet name="Progression_PT_Star" sheetId="4" r:id="rId2"/>
+    <sheet name="Progression_PT_Star_Distr" sheetId="6" r:id="rId3"/>
+    <sheet name="Progression_PT_Info" sheetId="1" r:id="rId4"/>
+    <sheet name="Progression_PT_Info_distrib" sheetId="5" r:id="rId5"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId6"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="139">
   <si>
     <t>Semaine</t>
   </si>
@@ -704,6 +705,51 @@
   <si>
     <t>TD Calcul numérique
 Traitement des données d’un accéléromètre</t>
+  </si>
+  <si>
+    <t>Cours Rec</t>
+  </si>
+  <si>
+    <t>Cours Piles</t>
+  </si>
+  <si>
+    <t>Tri</t>
+  </si>
+  <si>
+    <t>Calcul num</t>
+  </si>
+  <si>
+    <t>BDD</t>
+  </si>
+  <si>
+    <t>Traitement du signal</t>
+  </si>
+  <si>
+    <t>Révision</t>
+  </si>
+  <si>
+    <t>Révision / Correction</t>
+  </si>
+  <si>
+    <t>TD piles</t>
+  </si>
+  <si>
+    <t>TD Récursivité</t>
+  </si>
+  <si>
+    <t>TD piles Séance 1</t>
+  </si>
+  <si>
+    <t>TD piles Séance 2</t>
+  </si>
+  <si>
+    <t>TD tri</t>
+  </si>
+  <si>
+    <t>TD Calcul num</t>
+  </si>
+  <si>
+    <t>TD Révision</t>
   </si>
 </sst>
 </file>
@@ -774,7 +820,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1182,11 +1228,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1422,6 +1494,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1431,49 +1521,79 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1485,38 +1605,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1819,14 +1924,607 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="3" customWidth="1"/>
+    <col min="3" max="6" width="35.5703125" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="116">
+        <v>42618</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="116">
+        <f>A4+7</f>
+        <v>42625</v>
+      </c>
+      <c r="B5" s="92"/>
+      <c r="C5" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="116">
+        <f t="shared" ref="A6:A9" si="0">A5+7</f>
+        <v>42632</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="116">
+        <f t="shared" si="0"/>
+        <v>42639</v>
+      </c>
+      <c r="B7" s="92"/>
+      <c r="C7" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="116">
+        <f t="shared" si="0"/>
+        <v>42646</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="116">
+        <f t="shared" si="0"/>
+        <v>42653</v>
+      </c>
+      <c r="B9" s="93"/>
+      <c r="C9" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30"/>
+      <c r="B11" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="118"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="117">
+        <v>42674</v>
+      </c>
+      <c r="B13" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="116">
+        <f>A13+7</f>
+        <v>42681</v>
+      </c>
+      <c r="B14" s="92"/>
+      <c r="C14" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="116">
+        <f t="shared" ref="A15:A18" si="1">A14+7</f>
+        <v>42688</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="116">
+        <f t="shared" si="1"/>
+        <v>42695</v>
+      </c>
+      <c r="B16" s="92"/>
+      <c r="C16" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="116">
+        <f t="shared" si="1"/>
+        <v>42702</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="116">
+        <f t="shared" si="1"/>
+        <v>42709</v>
+      </c>
+      <c r="B18" s="92"/>
+      <c r="C18" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <f>A18+7</f>
+        <v>42716</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="117">
+        <v>42737</v>
+      </c>
+      <c r="B23" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="82"/>
+      <c r="D23" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="116">
+        <f>A23+7</f>
+        <v>42744</v>
+      </c>
+      <c r="B24" s="92"/>
+      <c r="C24" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="116">
+        <f t="shared" ref="A25:A27" si="2">A24+7</f>
+        <v>42751</v>
+      </c>
+      <c r="B25" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="80"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="116">
+        <f t="shared" si="2"/>
+        <v>42758</v>
+      </c>
+      <c r="B26" s="92"/>
+      <c r="C26" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="80"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="116">
+        <f t="shared" si="2"/>
+        <v>42765</v>
+      </c>
+      <c r="B27" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="119">
+        <f>A27+7</f>
+        <v>42772</v>
+      </c>
+      <c r="B28" s="120"/>
+      <c r="C28" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="79"/>
+      <c r="F28" s="121"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <f>A28+7</f>
+        <v>42779</v>
+      </c>
+      <c r="B29" s="93"/>
+      <c r="C29" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="45"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="23"/>
+    </row>
+    <row r="30" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="33"/>
+    </row>
+    <row r="32" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="117">
+        <v>42800</v>
+      </c>
+      <c r="B33" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="87"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="116">
+        <f>A33+7</f>
+        <v>42807</v>
+      </c>
+      <c r="B34" s="28"/>
+      <c r="C34" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="116">
+        <f t="shared" ref="A35:A37" si="3">A34+7</f>
+        <v>42814</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="116">
+        <f t="shared" si="3"/>
+        <v>42821</v>
+      </c>
+      <c r="B36" s="28"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="116">
+        <f t="shared" si="3"/>
+        <v>42828</v>
+      </c>
+      <c r="B37" s="28"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <f>A37+7</f>
+        <v>42835</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="23"/>
+    </row>
+    <row r="39" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
+    </row>
+    <row r="41" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
+      <c r="B42" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="97"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="100"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="103"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="84"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B42:F44"/>
+    <mergeCell ref="B45:B51"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1881,7 +2579,7 @@
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="91" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -1895,7 +2593,7 @@
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="88"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="19" t="s">
         <v>76</v>
       </c>
@@ -1907,7 +2605,7 @@
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="91" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -1921,7 +2619,7 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="19" t="s">
         <v>55</v>
       </c>
@@ -1933,7 +2631,7 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="91" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -1949,7 +2647,7 @@
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="89"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="22" t="s">
         <v>53</v>
       </c>
@@ -1975,7 +2673,7 @@
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="94" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -1991,7 +2689,7 @@
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="88"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="44" t="s">
         <v>104</v>
       </c>
@@ -2005,7 +2703,7 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="91" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -2019,7 +2717,7 @@
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="88"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="19" t="s">
         <v>74</v>
       </c>
@@ -2031,7 +2729,7 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="91" t="s">
         <v>89</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -2047,7 +2745,7 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="88"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="39" t="s">
         <v>101</v>
       </c>
@@ -2087,7 +2785,7 @@
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="94" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="41" t="s">
@@ -2101,7 +2799,7 @@
       <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="88"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="39" t="s">
         <v>107</v>
       </c>
@@ -2115,7 +2813,7 @@
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="91" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="39" t="s">
@@ -2129,7 +2827,7 @@
       <c r="A26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="88"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="39" t="s">
         <v>109</v>
       </c>
@@ -2141,7 +2839,7 @@
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="91" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="39" t="s">
@@ -2157,7 +2855,7 @@
       <c r="A28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="89"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="40" t="s">
         <v>111</v>
       </c>
@@ -2185,13 +2883,13 @@
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="79" t="s">
+      <c r="B32" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="81"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="87"/>
     </row>
     <row r="33" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
@@ -2257,7 +2955,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="23"/>
     </row>
-    <row r="38" spans="1:6" ht="194.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>28</v>
@@ -2275,39 +2973,39 @@
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="101" t="s">
+      <c r="B41" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="103"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="97"/>
     </row>
     <row r="42" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="104"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="106"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="100"/>
     </row>
     <row r="43" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="107"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="109"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="103"/>
     </row>
     <row r="44" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="85" t="s">
+      <c r="B44" s="88" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="10"/>
@@ -2319,11 +3017,11 @@
       <c r="A45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="83"/>
+      <c r="B45" s="89"/>
       <c r="C45" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="110" t="s">
+      <c r="D45" s="84" t="s">
         <v>117</v>
       </c>
       <c r="E45" s="10"/>
@@ -2333,7 +3031,7 @@
       <c r="A46" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="83"/>
+      <c r="B46" s="89"/>
       <c r="C46" s="10" t="s">
         <v>119</v>
       </c>
@@ -2347,7 +3045,7 @@
       <c r="A47" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="83"/>
+      <c r="B47" s="89"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -2357,7 +3055,7 @@
       <c r="A48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="89"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -2367,7 +3065,7 @@
       <c r="A49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="83"/>
+      <c r="B49" s="89"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -2377,7 +3075,7 @@
       <c r="A50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="86"/>
+      <c r="B50" s="90"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -2400,11 +3098,11 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2498,7 +3196,7 @@
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="91" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -2510,7 +3208,7 @@
       <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="90" t="s">
+      <c r="I4" s="94" t="s">
         <v>83</v>
       </c>
       <c r="J4" s="73" t="s">
@@ -2524,7 +3222,7 @@
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="88"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="19" t="s">
         <v>76</v>
       </c>
@@ -2534,7 +3232,7 @@
       <c r="H5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="88"/>
+      <c r="I5" s="92"/>
       <c r="J5" s="71" t="s">
         <v>60</v>
       </c>
@@ -2548,7 +3246,7 @@
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="91" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -2560,7 +3258,7 @@
       <c r="H6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="87" t="s">
+      <c r="I6" s="91" t="s">
         <v>82</v>
       </c>
       <c r="J6" s="71" t="s">
@@ -2578,7 +3276,7 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="19" t="s">
         <v>55</v>
       </c>
@@ -2588,7 +3286,7 @@
       <c r="H7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="88"/>
+      <c r="I7" s="92"/>
       <c r="J7" s="71" t="s">
         <v>74</v>
       </c>
@@ -2602,7 +3300,7 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="91" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -2616,7 +3314,7 @@
       <c r="H8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="87" t="s">
+      <c r="I8" s="91" t="s">
         <v>84</v>
       </c>
       <c r="J8" s="71" t="s">
@@ -2632,7 +3330,7 @@
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="89"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="22" t="s">
         <v>53</v>
       </c>
@@ -2642,7 +3340,7 @@
       <c r="H9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="89"/>
+      <c r="I9" s="93"/>
       <c r="J9" s="72" t="s">
         <v>61</v>
       </c>
@@ -2683,7 +3381,7 @@
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="94" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="14" t="s">
@@ -2697,19 +3395,19 @@
       <c r="H13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="79" t="s">
+      <c r="I13" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="81"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="87"/>
     </row>
     <row r="14" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="88"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="44" t="s">
         <v>58</v>
       </c>
@@ -2733,7 +3431,7 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="91" t="s">
         <v>82</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -2757,7 +3455,7 @@
       <c r="A16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="88"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="19" t="s">
         <v>74</v>
       </c>
@@ -2779,7 +3477,7 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="91" t="s">
         <v>89</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -2807,7 +3505,7 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="88"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="68" t="s">
         <v>59</v>
       </c>
@@ -2919,7 +3617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2">
     <pageSetUpPr fitToPage="1"/>
@@ -3023,7 +3721,7 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="91" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="77"/>
@@ -3035,11 +3733,11 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="88"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="88" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="25" t="s">
@@ -3055,7 +3753,7 @@
       <c r="C9" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="86"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="12"/>
       <c r="F9" s="23"/>
     </row>
@@ -3081,7 +3779,7 @@
       <c r="C13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="94" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="8"/>
@@ -3091,13 +3789,13 @@
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="107" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="88"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="10"/>
       <c r="F14" s="21"/>
     </row>
@@ -3105,11 +3803,11 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="94"/>
+      <c r="B15" s="108"/>
       <c r="C15" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="91" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="10"/>
@@ -3123,7 +3821,7 @@
       <c r="C16" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="88"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="10"/>
       <c r="F16" s="21"/>
     </row>
@@ -3131,13 +3829,13 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="91" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="91" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="10"/>
@@ -3147,11 +3845,11 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="88"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="88"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="25" t="s">
         <v>65</v>
       </c>
@@ -3185,13 +3883,13 @@
       <c r="A23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="94" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="95" t="s">
+      <c r="D23" s="104" t="s">
         <v>94</v>
       </c>
       <c r="E23" s="8"/>
@@ -3201,11 +3899,11 @@
       <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="88"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="91"/>
+      <c r="D24" s="105"/>
       <c r="E24" s="10"/>
       <c r="F24" s="21"/>
     </row>
@@ -3213,13 +3911,13 @@
       <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="91" t="s">
         <v>82</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="91" t="s">
+      <c r="D25" s="105" t="s">
         <v>95</v>
       </c>
       <c r="E25" s="18" t="s">
@@ -3231,11 +3929,11 @@
       <c r="A26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="88"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="91"/>
+      <c r="D26" s="105"/>
       <c r="E26" s="18" t="s">
         <v>72</v>
       </c>
@@ -3245,13 +3943,13 @@
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="91" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="91" t="s">
+      <c r="D27" s="105" t="s">
         <v>70</v>
       </c>
       <c r="E27" s="18" t="s">
@@ -3263,11 +3961,11 @@
       <c r="A28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="89"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="92"/>
+      <c r="D28" s="106"/>
       <c r="E28" s="12"/>
       <c r="F28" s="23"/>
     </row>
@@ -3289,13 +3987,13 @@
       <c r="A32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="79" t="s">
+      <c r="B32" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="81"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="87"/>
     </row>
     <row r="33" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
@@ -3317,7 +4015,7 @@
       <c r="C34" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="91" t="s">
+      <c r="D34" s="105" t="s">
         <v>71</v>
       </c>
       <c r="E34" s="10"/>
@@ -3331,7 +4029,7 @@
       <c r="C35" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="91"/>
+      <c r="D35" s="105"/>
       <c r="E35" s="10"/>
       <c r="F35" s="21"/>
     </row>
@@ -3341,7 +4039,7 @@
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="18"/>
-      <c r="D36" s="91" t="s">
+      <c r="D36" s="105" t="s">
         <v>71</v>
       </c>
       <c r="E36" s="10"/>
@@ -3353,7 +4051,7 @@
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="34"/>
-      <c r="D37" s="92"/>
+      <c r="D37" s="106"/>
       <c r="E37" s="12"/>
       <c r="F37" s="23"/>
     </row>
@@ -3375,7 +4073,7 @@
       <c r="A41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B41" s="82" t="s">
+      <c r="B41" s="109" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="8"/>
@@ -3387,7 +4085,7 @@
       <c r="A42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="83"/>
+      <c r="B42" s="89"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -3397,7 +4095,7 @@
       <c r="A43" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="84"/>
+      <c r="B43" s="110"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
@@ -3407,7 +4105,7 @@
       <c r="A44" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="85" t="s">
+      <c r="B44" s="88" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="10"/>
@@ -3419,7 +4117,7 @@
       <c r="A45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="83"/>
+      <c r="B45" s="89"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
@@ -3429,7 +4127,7 @@
       <c r="A46" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="83"/>
+      <c r="B46" s="89"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
@@ -3439,7 +4137,7 @@
       <c r="A47" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="83"/>
+      <c r="B47" s="89"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
@@ -3449,7 +4147,7 @@
       <c r="A48" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="83"/>
+      <c r="B48" s="89"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -3459,7 +4157,7 @@
       <c r="A49" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="83"/>
+      <c r="B49" s="89"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -3469,7 +4167,7 @@
       <c r="A50" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="86"/>
+      <c r="B50" s="90"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
@@ -3477,6 +4175,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D25:D26"/>
@@ -3484,17 +4193,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="B32:F32"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3502,7 +4200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil5">
     <pageSetUpPr fitToPage="1"/>
@@ -3568,7 +4266,7 @@
       <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="109" t="s">
         <v>83</v>
       </c>
       <c r="J3" s="54" t="s">
@@ -3596,7 +4294,7 @@
       <c r="H4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="84"/>
+      <c r="I4" s="110"/>
       <c r="J4" s="52" t="s">
         <v>60</v>
       </c>
@@ -3618,7 +4316,7 @@
       <c r="H5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="85" t="s">
+      <c r="I5" s="88" t="s">
         <v>82</v>
       </c>
       <c r="J5" s="52" t="s">
@@ -3646,7 +4344,7 @@
       <c r="H6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="84"/>
+      <c r="I6" s="110"/>
       <c r="J6" s="52" t="s">
         <v>78</v>
       </c>
@@ -3660,7 +4358,7 @@
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="91" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -3672,7 +4370,7 @@
       <c r="H7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="96" t="s">
+      <c r="I7" s="111" t="s">
         <v>84</v>
       </c>
       <c r="J7" s="52" t="s">
@@ -3690,11 +4388,11 @@
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="88"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="88" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="25" t="s">
@@ -3704,7 +4402,7 @@
       <c r="H8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="97"/>
+      <c r="I8" s="113"/>
       <c r="J8" s="53" t="s">
         <v>61</v>
       </c>
@@ -3720,7 +4418,7 @@
       <c r="C9" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="86"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="12"/>
       <c r="F9" s="23"/>
       <c r="H9" s="3"/>
@@ -3730,13 +4428,13 @@
       <c r="H10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="98" t="s">
+      <c r="I10" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="99"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="115"/>
     </row>
     <row r="11" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
@@ -3772,7 +4470,7 @@
       <c r="C13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="94" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="8"/>
@@ -3792,13 +4490,13 @@
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="111" t="s">
         <v>81</v>
       </c>
       <c r="C14" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="88"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="10"/>
       <c r="F14" s="21"/>
       <c r="H14" s="9" t="s">
@@ -3818,11 +4516,11 @@
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="100"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="91" t="s">
         <v>56</v>
       </c>
       <c r="E15" s="10"/>
@@ -3844,7 +4542,7 @@
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="19"/>
-      <c r="D16" s="88"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="10"/>
       <c r="F16" s="21"/>
       <c r="H16" s="9" t="s">
@@ -3862,13 +4560,13 @@
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="91" t="s">
         <v>82</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="91" t="s">
         <v>68</v>
       </c>
       <c r="E17" s="10"/>
@@ -3886,11 +4584,11 @@
       <c r="A18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="88"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="88"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="25" t="s">
         <v>65</v>
       </c>
@@ -3910,13 +4608,13 @@
       <c r="H19" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="98" t="s">
+      <c r="I19" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="99"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="115"/>
     </row>
     <row r="20" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H20" s="3"/>
@@ -4230,6 +4928,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="I19:M19"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="B7:B8"/>
@@ -4237,11 +4940,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="I19:M19"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4249,7 +4947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1"/>
@@ -4262,7 +4960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1"/>
